--- a/FindDuplicates/PhaseWeightCalculator.xlsx
+++ b/FindDuplicates/PhaseWeightCalculator.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C92E2B-C3D8-466E-989C-0D0A78B6E1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="6810" yWindow="2880" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Phase</t>
   </si>
@@ -61,12 +73,15 @@
   </si>
   <si>
     <t>on</t>
+  </si>
+  <si>
+    <t>Done on D:\. Below is bogus because program had just been run</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,6 +138,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -170,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,9 +221,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,6 +273,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,11 +465,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,17 +518,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>350</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <f xml:space="preserve"> G2 + 1000 * (F2 + 60 * (E2 + 60 * (D2 + 24 * C2)))</f>
-        <v>156350</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -496,14 +548,14 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="0" xml:space="preserve"> G3 + 1000 * (F3 + 60 * (E3 + 60 * (D3 + 24 * C3)))</f>
-        <v>3469</v>
+        <f t="shared" ref="H3:H12" si="0" xml:space="preserve"> G3 + 1000 * (F3 + 60 * (E3 + 60 * (D3 + 24 * C3)))</f>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -547,17 +599,17 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>905</v>
+        <v>949</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>623905</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -577,45 +629,24 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>17100</v>
+        <v>1178</v>
       </c>
       <c r="I6">
         <f>SUM(H2:H6)</f>
-        <v>800824</v>
+        <v>5599</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>96</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>7096</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -623,7 +654,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -635,14 +666,14 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>208</v>
+        <v>969</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>3208</v>
+        <v>969</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -650,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -659,17 +690,17 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>224</v>
+        <v>471</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>511224</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -677,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -686,17 +717,17 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>320</v>
+        <v>633</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>119320</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -704,7 +735,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -716,18 +747,45 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>539</v>
+        <v>330</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>539</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
         <v>17539</v>
       </c>
-      <c r="I11">
-        <f>SUM(H7:H11)</f>
-        <v>658387</v>
+      <c r="I12">
+        <f>SUM(H8:H12)</f>
+        <v>22942</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -749,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
